--- a/ocms/src/test/resources/TestData/OCMUnauthorizedaccessReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMUnauthorizedaccessReport.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63986B6A-26D4-4A2A-9D49-6C4906631B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F752038D-1694-4EF3-AD19-9AD85EF3F64E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="46">
   <si>
     <t>Report Channel</t>
   </si>
@@ -154,6 +154,21 @@
   </si>
   <si>
     <t>Aravinda</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>Ends with</t>
   </si>
 </sst>
 </file>
@@ -975,10 +990,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1095,31 +1110,150 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="I7" s="2"/>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
